--- a/data/recipes.xlsx
+++ b/data/recipes.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t xml:space="preserve">food</t>
   </si>
@@ -139,7 +139,7 @@
     <t xml:space="preserve">Fruit Salad</t>
   </si>
   <si>
-    <t xml:space="preserve">Salad</t>
+    <t xml:space="preserve">Mixed Salad</t>
   </si>
   <si>
     <t xml:space="preserve">Vegan Bolognese</t>
@@ -160,7 +160,49 @@
     <t xml:space="preserve">Vegan Breakfast</t>
   </si>
   <si>
-    <t xml:space="preserve">Pizza</t>
+    <t xml:space="preserve">Meat Pizza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ceasar Salad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vegan Snack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meat Snack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vegetarian Snack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vegetarian Pizza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vegan Pizza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chicken Fried Rice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fried Rice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lentil Soup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Potato Soup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chili con Carne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chili sin Carne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vegan Curry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meat Curry</t>
   </si>
 </sst>
 </file>
@@ -257,10 +299,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AK12"/>
+  <dimension ref="A1:AK26"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AI27" activeCellId="0" sqref="AI27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -388,50 +430,675 @@
       <c r="B3" s="0" t="s">
         <v>37</v>
       </c>
+      <c r="F3" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="P3" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="Y3" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC3" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ3" s="0" t="n">
+        <v>130</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
         <v>38</v>
       </c>
+      <c r="D4" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="Z4" s="0" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
         <v>39</v>
       </c>
+      <c r="G5" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="O5" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="U5" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="X5" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y5" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF5" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="AJ5" s="0" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
         <v>40</v>
       </c>
+      <c r="J6" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="P6" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="Y6" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF6" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="AI6" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ6" s="0" t="n">
+        <v>130</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
         <v>41</v>
       </c>
+      <c r="H7" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="Q7" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="Y7" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ7" s="0" t="n">
+        <v>130</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
         <v>42</v>
       </c>
+      <c r="H8" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="S8" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="X8" s="0" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
         <v>43</v>
       </c>
+      <c r="F9" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q9" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="R9" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="S9" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="V9" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="AC9" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="AE9" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="AK9" s="0" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
         <v>44</v>
       </c>
+      <c r="E10" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q10" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="R10" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="V10" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="Z10" s="0" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
         <v>45</v>
       </c>
+      <c r="D11" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="R11" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="X11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z11" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="AH11" s="0" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
         <v>46</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="X12" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y12" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC12" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="AJ12" s="0" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="O13" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="U13" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="W13" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="X13" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y13" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB14" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH14" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="V15" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK15" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="V16" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N17" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="W17" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="X17" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y17" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB17" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ17" s="0" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="W18" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="X18" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y18" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB18" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI18" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="AJ18" s="0" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="L19" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q19" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA19" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB19" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG19" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q20" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA20" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB20" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG20" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="AI20" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="J21" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="M21" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="T21" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="X21" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y21" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="AD21" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF21" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ21" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J22" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="N22" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="AD22" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="J23" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="N23" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y23" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA23" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC23" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF23" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="AJ23" s="0" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="J24" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="M24" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="N24" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="T24" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y24" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA24" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF24" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="AI24" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="AJ24" s="0" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="J25" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="M25" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="T25" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA25" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="AB25" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD25" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG25" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="AI25" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ25" s="0" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="J26" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="T26" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA26" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="AB26" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD26" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG26" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ26" s="0" t="n">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
